--- a/pred_ohlcv/54_21/2020-01-14 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ADA ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-36842.53876251999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-174457.15396252</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-174814.65696252</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-101586528.8756474</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-101869394.5708474</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-101869155.8503891</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ADA ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-90566.89936251998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-92366.36166251998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-92319.39826251999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-92767.24026251999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-96749.24026251999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-105067.24026252</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-97334.75256251999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-48229.80806251999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-32499.43336251999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-36842.53876251999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-83554.61836251999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-174457.15396252</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-174814.65696252</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-174814.65696252</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-175026.14386252</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-187388.65246728</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-232033.14610294</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-231490.54363277</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-197265.92206229</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-197833.14146229</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-201192.28176229</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-202510.03386229</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-202388.81526229</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-194388.81526229</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-251450.95936229</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-200621.95276229</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-332579.20086229</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-354473.99756229</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-368718.61626229</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-101370366.8363547</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-101374210.6410547</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-101435319.2743696</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-101434596.4272696</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-101436997.3377696</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-101583790.9585474</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-101583722.8756474</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-101586528.8756474</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-101878565.9375474</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-101870814.5708474</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-101869394.5708474</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-101869155.8503891</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-101871087.0144891</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
